--- a/data/pca/factorExposure/factorExposure_2017-08-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02381568208212925</v>
+        <v>-0.00740712983882162</v>
       </c>
       <c r="C2">
-        <v>-0.0004670308213963743</v>
+        <v>-0.04271515402551697</v>
       </c>
       <c r="D2">
-        <v>0.02020739699928615</v>
+        <v>-0.03001169619585375</v>
       </c>
       <c r="E2">
-        <v>0.009973073741850516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03360322314053928</v>
+      </c>
+      <c r="F2">
+        <v>0.01510303948935178</v>
+      </c>
+      <c r="G2">
+        <v>0.0472856612032098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01596814625725416</v>
+        <v>-0.05656122789002372</v>
       </c>
       <c r="C3">
-        <v>-0.05487368808382595</v>
+        <v>-0.06811176825573477</v>
       </c>
       <c r="D3">
-        <v>0.008382924163677766</v>
+        <v>-0.01488262280087094</v>
       </c>
       <c r="E3">
-        <v>0.004203845467241616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09870514731223808</v>
+      </c>
+      <c r="F3">
+        <v>0.03888532415599574</v>
+      </c>
+      <c r="G3">
+        <v>0.1061989202742243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02334936333544168</v>
+        <v>-0.05719310212126758</v>
       </c>
       <c r="C4">
-        <v>-0.01891485210780914</v>
+        <v>-0.06229889432419657</v>
       </c>
       <c r="D4">
-        <v>0.06334845326122547</v>
+        <v>-0.02347864678168691</v>
       </c>
       <c r="E4">
-        <v>-0.01543494327199971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01843249896036666</v>
+      </c>
+      <c r="F4">
+        <v>0.006439051666467925</v>
+      </c>
+      <c r="G4">
+        <v>0.06001137592946246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01497895556062967</v>
+        <v>-0.03892775035827697</v>
       </c>
       <c r="C6">
-        <v>-0.009170647272883163</v>
+        <v>-0.04971338152471901</v>
       </c>
       <c r="D6">
-        <v>0.08779722205067189</v>
+        <v>-0.015688796805839</v>
       </c>
       <c r="E6">
-        <v>-0.008095455589635942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01778224855577402</v>
+      </c>
+      <c r="F6">
+        <v>0.01322530006824972</v>
+      </c>
+      <c r="G6">
+        <v>0.03605645521258855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01070756561308349</v>
+        <v>-0.0174512189626076</v>
       </c>
       <c r="C7">
-        <v>-0.005024947351733193</v>
+        <v>-0.03667072421304685</v>
       </c>
       <c r="D7">
-        <v>0.03014570920882497</v>
+        <v>-0.01331989291548959</v>
       </c>
       <c r="E7">
-        <v>-0.07551706271071591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008354174422670552</v>
+      </c>
+      <c r="F7">
+        <v>0.002312167090871355</v>
+      </c>
+      <c r="G7">
+        <v>0.1025178877860489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>5.108511025494815e-05</v>
+        <v>8.232254454692016e-05</v>
       </c>
       <c r="C8">
-        <v>-0.001000861344463232</v>
+        <v>-0.02017226726299365</v>
       </c>
       <c r="D8">
-        <v>0.00526296140799594</v>
+        <v>-0.003853613276240603</v>
       </c>
       <c r="E8">
-        <v>-0.006562571533979495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02307385259840941</v>
+      </c>
+      <c r="F8">
+        <v>0.01808299040298859</v>
+      </c>
+      <c r="G8">
+        <v>0.03210812866008065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01632706468481317</v>
+        <v>-0.03372513928107256</v>
       </c>
       <c r="C9">
-        <v>-0.02072451368212551</v>
+        <v>-0.04406423692817935</v>
       </c>
       <c r="D9">
-        <v>0.04846320788269131</v>
+        <v>-0.01623376533593668</v>
       </c>
       <c r="E9">
-        <v>-0.005650174800910525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01347217769996736</v>
+      </c>
+      <c r="F9">
+        <v>0.01412916572186398</v>
+      </c>
+      <c r="G9">
+        <v>0.05671371053732879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02052965022796766</v>
+        <v>-0.08967841473565337</v>
       </c>
       <c r="C10">
-        <v>-0.1647856596960524</v>
+        <v>0.1852426339783151</v>
       </c>
       <c r="D10">
-        <v>-0.1130051792576748</v>
+        <v>0.01734673939856436</v>
       </c>
       <c r="E10">
-        <v>-0.01532355853519795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.009923210648526659</v>
+      </c>
+      <c r="F10">
+        <v>-0.01734131696664108</v>
+      </c>
+      <c r="G10">
+        <v>0.05032156538283594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006915951772324817</v>
+        <v>-0.03301873440132507</v>
       </c>
       <c r="C11">
-        <v>-0.007119816405253575</v>
+        <v>-0.05364585038450388</v>
       </c>
       <c r="D11">
-        <v>0.04235642232085506</v>
+        <v>-0.002585103848390593</v>
       </c>
       <c r="E11">
-        <v>0.006199029784258236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008220373950272881</v>
+      </c>
+      <c r="F11">
+        <v>0.02370883809438023</v>
+      </c>
+      <c r="G11">
+        <v>0.03948655170481819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006250573762568125</v>
+        <v>-0.03293264609067738</v>
       </c>
       <c r="C12">
-        <v>-0.0127350621809645</v>
+        <v>-0.04547887649067645</v>
       </c>
       <c r="D12">
-        <v>0.04560899452037037</v>
+        <v>-0.006263353803431152</v>
       </c>
       <c r="E12">
-        <v>-0.00295065822134109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001192469512344729</v>
+      </c>
+      <c r="F12">
+        <v>0.005556728766316407</v>
+      </c>
+      <c r="G12">
+        <v>0.03959509037961724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02258802537151187</v>
+        <v>-0.0155992416907675</v>
       </c>
       <c r="C13">
-        <v>-0.01572075978991604</v>
+        <v>-0.03093115147936014</v>
       </c>
       <c r="D13">
-        <v>0.01103493682473532</v>
+        <v>-0.02524642328974404</v>
       </c>
       <c r="E13">
-        <v>0.00971609944042314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02442949135193539</v>
+      </c>
+      <c r="F13">
+        <v>0.0114556997868685</v>
+      </c>
+      <c r="G13">
+        <v>0.05601947224969293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007835398789926163</v>
+        <v>-0.008883138085307725</v>
       </c>
       <c r="C14">
-        <v>-0.01401783016279404</v>
+        <v>-0.02527123184630817</v>
       </c>
       <c r="D14">
-        <v>0.01321570906975156</v>
+        <v>-0.008696277518698456</v>
       </c>
       <c r="E14">
-        <v>-0.01389671704896059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004491776141785417</v>
+      </c>
+      <c r="F14">
+        <v>-0.004024551751860092</v>
+      </c>
+      <c r="G14">
+        <v>0.0580052363370523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001487475921071583</v>
+        <v>-0.03321019240462377</v>
       </c>
       <c r="C16">
-        <v>-0.01271004501146706</v>
+        <v>-0.0446719176050217</v>
       </c>
       <c r="D16">
-        <v>0.04836043246460003</v>
+        <v>-0.001802647417333932</v>
       </c>
       <c r="E16">
-        <v>-0.002747404155053585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0058157736421769</v>
+      </c>
+      <c r="F16">
+        <v>0.008703466131022256</v>
+      </c>
+      <c r="G16">
+        <v>0.04009813763027798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01422497406299605</v>
+        <v>-0.02402261866979132</v>
       </c>
       <c r="C19">
-        <v>-0.02410560558627149</v>
+        <v>-0.04743870129214556</v>
       </c>
       <c r="D19">
-        <v>0.02030223888016227</v>
+        <v>-0.01678287084170689</v>
       </c>
       <c r="E19">
-        <v>-0.00676772901084908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05540849704504865</v>
+      </c>
+      <c r="F19">
+        <v>0.02125004821404623</v>
+      </c>
+      <c r="G19">
+        <v>0.06873975218003009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0110086585220359</v>
+        <v>-0.01363153530831132</v>
       </c>
       <c r="C20">
-        <v>-0.008865218610473213</v>
+        <v>-0.03303038319195042</v>
       </c>
       <c r="D20">
-        <v>0.009883600108316421</v>
+        <v>-0.01336487276230179</v>
       </c>
       <c r="E20">
-        <v>0.0003143463935634212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02460266058044878</v>
+      </c>
+      <c r="F20">
+        <v>-0.002545165643228554</v>
+      </c>
+      <c r="G20">
+        <v>0.05509520838749271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0149918629755599</v>
+        <v>-0.01361022920523836</v>
       </c>
       <c r="C21">
-        <v>-0.02475605008798548</v>
+        <v>-0.0339956040179475</v>
       </c>
       <c r="D21">
-        <v>0.02338578422687407</v>
+        <v>-0.01714756098502873</v>
       </c>
       <c r="E21">
-        <v>-0.01972569390062922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03358145982390631</v>
+      </c>
+      <c r="F21">
+        <v>0.003421522569129382</v>
+      </c>
+      <c r="G21">
+        <v>0.07986796648039014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004489176600940851</v>
+        <v>-0.02664696661570128</v>
       </c>
       <c r="C24">
-        <v>-0.00114020646823947</v>
+        <v>-0.04827733811542746</v>
       </c>
       <c r="D24">
-        <v>0.04338999091001394</v>
+        <v>-0.007392730827690785</v>
       </c>
       <c r="E24">
-        <v>-0.0008010494823946559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003935172422033111</v>
+      </c>
+      <c r="F24">
+        <v>0.01995596227935312</v>
+      </c>
+      <c r="G24">
+        <v>0.0434081181802235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01204654970830866</v>
+        <v>-0.04130074028991785</v>
       </c>
       <c r="C25">
-        <v>-0.01711052415098988</v>
+        <v>-0.05522011593942472</v>
       </c>
       <c r="D25">
-        <v>0.04621726171021633</v>
+        <v>-0.01136659547753973</v>
       </c>
       <c r="E25">
-        <v>-9.946252861375486e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004201233383032052</v>
+      </c>
+      <c r="F25">
+        <v>0.01359776792148671</v>
+      </c>
+      <c r="G25">
+        <v>0.04775843380112121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02320669142605983</v>
+        <v>-0.01388342768573979</v>
       </c>
       <c r="C26">
-        <v>-0.01122141889251414</v>
+        <v>-0.00852013364041385</v>
       </c>
       <c r="D26">
-        <v>-0.006515396201897027</v>
+        <v>-0.02342601438620982</v>
       </c>
       <c r="E26">
-        <v>-0.00908852603468778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003289457129889</v>
+      </c>
+      <c r="F26">
+        <v>-0.003176805874862762</v>
+      </c>
+      <c r="G26">
+        <v>0.04397619155674334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04308215284688357</v>
+        <v>-0.116381274787563</v>
       </c>
       <c r="C28">
-        <v>-0.2368307601462196</v>
+        <v>0.2339660245868947</v>
       </c>
       <c r="D28">
-        <v>-0.1607055425251762</v>
+        <v>0.008750676198301211</v>
       </c>
       <c r="E28">
-        <v>-0.02496871854954514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002012839533600391</v>
+      </c>
+      <c r="F28">
+        <v>-0.01776160610969953</v>
+      </c>
+      <c r="G28">
+        <v>0.06424980168571806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008297367867081218</v>
+        <v>-0.01179245373361556</v>
       </c>
       <c r="C29">
-        <v>-0.01832634072575366</v>
+        <v>-0.01947744862103766</v>
       </c>
       <c r="D29">
-        <v>0.01194828821212827</v>
+        <v>-0.00745031079546004</v>
       </c>
       <c r="E29">
-        <v>-0.008994696743608588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007348401340207467</v>
+      </c>
+      <c r="F29">
+        <v>-0.01281002232489498</v>
+      </c>
+      <c r="G29">
+        <v>0.04718570222221554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02369999894621317</v>
+        <v>-0.04635976903014836</v>
       </c>
       <c r="C30">
-        <v>-0.00545856898986343</v>
+        <v>-0.06261089926754627</v>
       </c>
       <c r="D30">
-        <v>0.06177507164585819</v>
+        <v>-0.02807557008644041</v>
       </c>
       <c r="E30">
-        <v>0.05481733269256234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04593778565142249</v>
+      </c>
+      <c r="F30">
+        <v>0.05313634096225116</v>
+      </c>
+      <c r="G30">
+        <v>0.03333333388084136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009579295962332294</v>
+        <v>-0.05171796795511235</v>
       </c>
       <c r="C31">
-        <v>-0.04187737367022672</v>
+        <v>-0.03277045272046244</v>
       </c>
       <c r="D31">
-        <v>0.04353313249169227</v>
+        <v>-0.003150897916916898</v>
       </c>
       <c r="E31">
-        <v>-0.01173568529418745</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008250244556886301</v>
+      </c>
+      <c r="F31">
+        <v>-0.03563427659775319</v>
+      </c>
+      <c r="G31">
+        <v>0.04781386966956876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006057163713103759</v>
+        <v>0.004922982379600181</v>
       </c>
       <c r="C32">
-        <v>-0.01903205743117253</v>
+        <v>-0.0274471533477056</v>
       </c>
       <c r="D32">
-        <v>-0.0006333527850261676</v>
+        <v>0.003671238686409839</v>
       </c>
       <c r="E32">
-        <v>-0.03393746711856409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01686046906696464</v>
+      </c>
+      <c r="F32">
+        <v>0.04571232664741424</v>
+      </c>
+      <c r="G32">
+        <v>0.06949786377120623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01393093022114949</v>
+        <v>-0.02772589496295333</v>
       </c>
       <c r="C33">
-        <v>-0.02643071698203846</v>
+        <v>-0.04557182385017379</v>
       </c>
       <c r="D33">
-        <v>0.02281045051561792</v>
+        <v>-0.0149002620521469</v>
       </c>
       <c r="E33">
-        <v>0.02260077429489503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02836739659110761</v>
+      </c>
+      <c r="F33">
+        <v>0.02315011314290205</v>
+      </c>
+      <c r="G33">
+        <v>0.06171244218206342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003962682348823156</v>
+        <v>-0.03914814513348587</v>
       </c>
       <c r="C34">
-        <v>-0.01894677745956398</v>
+        <v>-0.05718499559623903</v>
       </c>
       <c r="D34">
-        <v>0.04889004408034845</v>
+        <v>0.004393991971258066</v>
       </c>
       <c r="E34">
-        <v>-0.007266909389352171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.002859760614828383</v>
+      </c>
+      <c r="F34">
+        <v>0.02661034549724317</v>
+      </c>
+      <c r="G34">
+        <v>0.04884970948818641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01330797840108105</v>
+        <v>-0.01342564227628217</v>
       </c>
       <c r="C36">
-        <v>-0.02232817934002686</v>
+        <v>-0.008918471166696456</v>
       </c>
       <c r="D36">
-        <v>0.004452572820242856</v>
+        <v>-0.0116706218502804</v>
       </c>
       <c r="E36">
-        <v>-0.003543872940894375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001172519012165726</v>
+      </c>
+      <c r="F36">
+        <v>-0.004381029709537619</v>
+      </c>
+      <c r="G36">
+        <v>0.03948925089633486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003164565902093851</v>
+        <v>-0.03166768065622576</v>
       </c>
       <c r="C38">
-        <v>-0.03597188648532437</v>
+        <v>-0.02765659597793034</v>
       </c>
       <c r="D38">
-        <v>0.0338638116685535</v>
+        <v>0.00746376917716225</v>
       </c>
       <c r="E38">
-        <v>-0.00328381132055572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004003135556707164</v>
+      </c>
+      <c r="F38">
+        <v>-0.009598075793985285</v>
+      </c>
+      <c r="G38">
+        <v>0.04621208144212322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005141979138230087</v>
+        <v>-0.03281162377883546</v>
       </c>
       <c r="C39">
-        <v>0.01709656686235796</v>
+        <v>-0.08104580913234184</v>
       </c>
       <c r="D39">
-        <v>0.09003229730458159</v>
+        <v>-0.01246064940214281</v>
       </c>
       <c r="E39">
-        <v>0.008494661772668234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02300475929091629</v>
+      </c>
+      <c r="F39">
+        <v>0.03217760974668165</v>
+      </c>
+      <c r="G39">
+        <v>0.04323780866615826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01276568860599065</v>
+        <v>-0.01892848437820441</v>
       </c>
       <c r="C40">
-        <v>-0.02363836703143401</v>
+        <v>-0.03090619431482345</v>
       </c>
       <c r="D40">
-        <v>0.0308712291533926</v>
+        <v>-0.01349854428883672</v>
       </c>
       <c r="E40">
-        <v>0.001982899660423596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02012183733595105</v>
+      </c>
+      <c r="F40">
+        <v>0.01391470636172189</v>
+      </c>
+      <c r="G40">
+        <v>0.0432291235440813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006323050602144732</v>
+        <v>-0.01195159085195739</v>
       </c>
       <c r="C41">
-        <v>-0.02177477073975959</v>
+        <v>-0.0001175371152825881</v>
       </c>
       <c r="D41">
-        <v>-0.008542278463035872</v>
+        <v>-0.003768897885355388</v>
       </c>
       <c r="E41">
-        <v>-0.003444613777434224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002255345211076243</v>
+      </c>
+      <c r="F41">
+        <v>-0.007874792194486379</v>
+      </c>
+      <c r="G41">
+        <v>0.02720077783890224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09313439678175361</v>
+        <v>-0.01393938789078558</v>
       </c>
       <c r="C42">
-        <v>0.005673028190347981</v>
+        <v>-0.03972902263355022</v>
       </c>
       <c r="D42">
-        <v>0.2600689972947808</v>
+        <v>-0.09424131330196626</v>
       </c>
       <c r="E42">
-        <v>0.2960240195073845</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03327919212743645</v>
+      </c>
+      <c r="F42">
+        <v>-0.03997476265615436</v>
+      </c>
+      <c r="G42">
+        <v>-0.17203129828319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007831073529548184</v>
+        <v>-0.02859950620724955</v>
       </c>
       <c r="C43">
-        <v>-0.02631922174448754</v>
+        <v>-0.01086248664925459</v>
       </c>
       <c r="D43">
-        <v>-0.01313382091587753</v>
+        <v>-0.00508266889800804</v>
       </c>
       <c r="E43">
-        <v>0.003256194240414298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009756502749602292</v>
+      </c>
+      <c r="F43">
+        <v>0.0009332162532127446</v>
+      </c>
+      <c r="G43">
+        <v>0.04089509026897847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00348674495635069</v>
+        <v>-0.01740818883536606</v>
       </c>
       <c r="C44">
-        <v>-0.007606880805696423</v>
+        <v>-0.04824593720130328</v>
       </c>
       <c r="D44">
-        <v>0.0268610075935393</v>
+        <v>-0.006071564598912341</v>
       </c>
       <c r="E44">
-        <v>-0.001286125190354389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0161683651077139</v>
+      </c>
+      <c r="F44">
+        <v>0.0001201765040383966</v>
+      </c>
+      <c r="G44">
+        <v>0.05851316505900531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01124115538191257</v>
+        <v>-0.007039397230808134</v>
       </c>
       <c r="C46">
-        <v>-0.0165127707050224</v>
+        <v>-0.01646162383721054</v>
       </c>
       <c r="D46">
-        <v>0.01225695355984177</v>
+        <v>-0.01148784684929344</v>
       </c>
       <c r="E46">
-        <v>-0.002974311514934891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005858383783604194</v>
+      </c>
+      <c r="F46">
+        <v>-0.01625524738780394</v>
+      </c>
+      <c r="G46">
+        <v>0.04501245927562269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004094236258996397</v>
+        <v>-0.07631757433115509</v>
       </c>
       <c r="C47">
-        <v>-0.05395100659470869</v>
+        <v>-0.06373154737246213</v>
       </c>
       <c r="D47">
-        <v>0.05968131948867916</v>
+        <v>0.005315913887641978</v>
       </c>
       <c r="E47">
-        <v>-0.001488490732616442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01209577212736478</v>
+      </c>
+      <c r="F47">
+        <v>-0.05328336623987723</v>
+      </c>
+      <c r="G47">
+        <v>0.042509515436978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004121103765065352</v>
+        <v>-0.02087357187193127</v>
       </c>
       <c r="C48">
-        <v>-0.02736475496889606</v>
+        <v>-0.009788764818426983</v>
       </c>
       <c r="D48">
-        <v>0.01210121587947822</v>
+        <v>-0.0007790968897805257</v>
       </c>
       <c r="E48">
-        <v>-0.004284773260842969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004603018046962002</v>
+      </c>
+      <c r="F48">
+        <v>-0.01725899572223004</v>
+      </c>
+      <c r="G48">
+        <v>0.04482989719721374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.005950453076178125</v>
+        <v>-0.07933837243290941</v>
       </c>
       <c r="C50">
-        <v>-0.05273693491935634</v>
+        <v>-0.06500766373804388</v>
       </c>
       <c r="D50">
-        <v>0.0638139705525262</v>
+        <v>0.003613310098375127</v>
       </c>
       <c r="E50">
-        <v>-0.03242791901611872</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01637090963992459</v>
+      </c>
+      <c r="F50">
+        <v>-0.05617435587519874</v>
+      </c>
+      <c r="G50">
+        <v>0.06869949868195589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007564718532805176</v>
+        <v>-0.0135714922439477</v>
       </c>
       <c r="C51">
-        <v>-0.01792313743083202</v>
+        <v>-0.03110663001010176</v>
       </c>
       <c r="D51">
-        <v>-0.00162447377106073</v>
+        <v>-0.00979403883564635</v>
       </c>
       <c r="E51">
-        <v>-0.004356599829607317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01367798833155791</v>
+      </c>
+      <c r="F51">
+        <v>0.02938208086569859</v>
+      </c>
+      <c r="G51">
+        <v>0.06735124215640963</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007131273025977463</v>
+        <v>-0.08439354529517254</v>
       </c>
       <c r="C53">
-        <v>-0.0643735269938412</v>
+        <v>-0.07690203580560796</v>
       </c>
       <c r="D53">
-        <v>0.1199758992854715</v>
+        <v>0.004907819169323435</v>
       </c>
       <c r="E53">
-        <v>-0.009525983386165631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03594773307058437</v>
+      </c>
+      <c r="F53">
+        <v>-0.05778568484053596</v>
+      </c>
+      <c r="G53">
+        <v>0.03945888397204928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001279820073765683</v>
+        <v>-0.03263170799467363</v>
       </c>
       <c r="C54">
-        <v>-0.03555088997771386</v>
+        <v>-0.01169079986675416</v>
       </c>
       <c r="D54">
-        <v>-0.006138766348256609</v>
+        <v>0.002839330484960893</v>
       </c>
       <c r="E54">
-        <v>-0.01197060919013847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001903633551557183</v>
+      </c>
+      <c r="F54">
+        <v>-0.004513938438974669</v>
+      </c>
+      <c r="G54">
+        <v>0.04980377053578051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003719081764728742</v>
+        <v>-0.07435552927660216</v>
       </c>
       <c r="C55">
-        <v>-0.04604884796233114</v>
+        <v>-0.06892409799605702</v>
       </c>
       <c r="D55">
-        <v>0.1039677924304853</v>
+        <v>0.005525550060636582</v>
       </c>
       <c r="E55">
-        <v>0.00322258270984594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02834368304857756</v>
+      </c>
+      <c r="F55">
+        <v>-0.05895196108298761</v>
+      </c>
+      <c r="G55">
+        <v>0.02252162501773129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006315589014916329</v>
+        <v>-0.1438391271492673</v>
       </c>
       <c r="C56">
-        <v>-0.09123221494155065</v>
+        <v>-0.102589234108147</v>
       </c>
       <c r="D56">
-        <v>0.1524415238070636</v>
+        <v>0.01313259217550293</v>
       </c>
       <c r="E56">
-        <v>0.0002749657622680856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04065001790767638</v>
+      </c>
+      <c r="F56">
+        <v>-0.07838720994283634</v>
+      </c>
+      <c r="G56">
+        <v>0.008469095610719879</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0242743281262565</v>
+        <v>-0.009149773338368437</v>
       </c>
       <c r="C57">
-        <v>-0.01638976494357187</v>
+        <v>-0.009080561673015861</v>
       </c>
       <c r="D57">
-        <v>0.04294545131891711</v>
+        <v>-0.02363749393175444</v>
       </c>
       <c r="E57">
-        <v>0.003363170572694791</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02773860898082498</v>
+      </c>
+      <c r="F57">
+        <v>0.0110342745209627</v>
+      </c>
+      <c r="G57">
+        <v>0.02368986955501617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01496617798503173</v>
+        <v>-0.08175683901001812</v>
       </c>
       <c r="C58">
-        <v>-0.0976703530515087</v>
+        <v>-0.02945735580430017</v>
       </c>
       <c r="D58">
-        <v>0.09608325520934595</v>
+        <v>-0.01803253540271327</v>
       </c>
       <c r="E58">
-        <v>0.206918467768648</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9362255707657138</v>
+      </c>
+      <c r="F58">
+        <v>-0.25778118770604</v>
+      </c>
+      <c r="G58">
+        <v>-0.02633072161627522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04023711315806271</v>
+        <v>-0.1571075043992055</v>
       </c>
       <c r="C59">
-        <v>-0.2531438377716745</v>
+        <v>0.2129374783061544</v>
       </c>
       <c r="D59">
-        <v>-0.1622635162497112</v>
+        <v>0.01526564448687421</v>
       </c>
       <c r="E59">
-        <v>-0.002453513761292362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.005358500271784629</v>
+      </c>
+      <c r="F59">
+        <v>0.008215864361553542</v>
+      </c>
+      <c r="G59">
+        <v>0.02185688555069165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04165930264636095</v>
+        <v>-0.2846926143350179</v>
       </c>
       <c r="C60">
-        <v>-0.1632600115141669</v>
+        <v>-0.09909838785265768</v>
       </c>
       <c r="D60">
-        <v>0.07842631565983089</v>
+        <v>-0.01359862920614149</v>
       </c>
       <c r="E60">
-        <v>0.03391733406882028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00627646485786903</v>
+      </c>
+      <c r="F60">
+        <v>0.3393076452585038</v>
+      </c>
+      <c r="G60">
+        <v>-0.09435897462611526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003588854453072634</v>
+        <v>-0.03602832549852615</v>
       </c>
       <c r="C61">
-        <v>-0.008138996291423298</v>
+        <v>-0.06491214683546882</v>
       </c>
       <c r="D61">
-        <v>0.06395320166704077</v>
+        <v>-0.005773804684696863</v>
       </c>
       <c r="E61">
-        <v>0.002893665022494485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01219714464656519</v>
+      </c>
+      <c r="F61">
+        <v>0.02174879380882087</v>
+      </c>
+      <c r="G61">
+        <v>0.0403957672816472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007759990156385204</v>
+        <v>-0.01452732714240192</v>
       </c>
       <c r="C63">
-        <v>-0.009097880494827701</v>
+        <v>-0.02793175082406504</v>
       </c>
       <c r="D63">
-        <v>0.00934477560253693</v>
+        <v>-0.00789353452371035</v>
       </c>
       <c r="E63">
-        <v>-0.008421208238258147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004480543771872352</v>
+      </c>
+      <c r="F63">
+        <v>-0.01548238015291453</v>
+      </c>
+      <c r="G63">
+        <v>0.0489576178778677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008638295164593975</v>
+        <v>-0.05285983315565469</v>
       </c>
       <c r="C64">
-        <v>-0.03069663512402654</v>
+        <v>-0.04302607722075424</v>
       </c>
       <c r="D64">
-        <v>0.0654410757363617</v>
+        <v>-0.005454211408929597</v>
       </c>
       <c r="E64">
-        <v>0.01315043954805489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006473673885951653</v>
+      </c>
+      <c r="F64">
+        <v>0.004022076135796295</v>
+      </c>
+      <c r="G64">
+        <v>0.03315567729876522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.016797824316102</v>
+        <v>-0.08354265023473001</v>
       </c>
       <c r="C65">
-        <v>-0.0079859066319903</v>
+        <v>-0.05652580843157352</v>
       </c>
       <c r="D65">
-        <v>0.1034940709996192</v>
+        <v>-0.01506733119678533</v>
       </c>
       <c r="E65">
-        <v>-0.008879956409188837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01864607317519868</v>
+      </c>
+      <c r="F65">
+        <v>0.02873944502116709</v>
+      </c>
+      <c r="G65">
+        <v>0.01591438767121413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004923595899602365</v>
+        <v>-0.05237519073650494</v>
       </c>
       <c r="C66">
-        <v>0.01113734856828279</v>
+        <v>-0.1121561560293406</v>
       </c>
       <c r="D66">
-        <v>0.1173934021900151</v>
+        <v>-0.01221075981767118</v>
       </c>
       <c r="E66">
-        <v>0.02138201661617149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02812474720356417</v>
+      </c>
+      <c r="F66">
+        <v>0.03759403370085732</v>
+      </c>
+      <c r="G66">
+        <v>0.03931829093769396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003369361190141747</v>
+        <v>-0.05355462829596051</v>
       </c>
       <c r="C67">
-        <v>-0.05652525449344622</v>
+        <v>-0.03146352129913077</v>
       </c>
       <c r="D67">
-        <v>0.03931333508223243</v>
+        <v>0.005467653395353209</v>
       </c>
       <c r="E67">
-        <v>-0.003124743818302913</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00227283402284165</v>
+      </c>
+      <c r="F67">
+        <v>-0.01069879080017019</v>
+      </c>
+      <c r="G67">
+        <v>0.0434351964649912</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05752364474906967</v>
+        <v>-0.1395236529819246</v>
       </c>
       <c r="C68">
-        <v>-0.2310336017259497</v>
+        <v>0.2733716604848367</v>
       </c>
       <c r="D68">
-        <v>-0.1549067361496509</v>
+        <v>-0.0027358508159907</v>
       </c>
       <c r="E68">
-        <v>0.003441924954277768</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004667651403182205</v>
+      </c>
+      <c r="F68">
+        <v>-0.03013317000346698</v>
+      </c>
+      <c r="G68">
+        <v>0.02297068621775848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001166092343892809</v>
+        <v>-0.07879320479403742</v>
       </c>
       <c r="C69">
-        <v>-0.04091338085274998</v>
+        <v>-0.06703681012464333</v>
       </c>
       <c r="D69">
-        <v>0.06344835167683123</v>
+        <v>0.009218390931657305</v>
       </c>
       <c r="E69">
-        <v>-0.002621686985482414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02941396981802297</v>
+      </c>
+      <c r="F69">
+        <v>-0.03697220303025477</v>
+      </c>
+      <c r="G69">
+        <v>0.04644864370576236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04294182859678494</v>
+        <v>-0.1309831904914224</v>
       </c>
       <c r="C71">
-        <v>-0.2051161401609129</v>
+        <v>0.2359855747203851</v>
       </c>
       <c r="D71">
-        <v>-0.1405394439830095</v>
+        <v>0.006015170848040204</v>
       </c>
       <c r="E71">
-        <v>-0.008307046258576305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02301896652230251</v>
+      </c>
+      <c r="F71">
+        <v>-0.006528733769076062</v>
+      </c>
+      <c r="G71">
+        <v>0.03741577368375581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0001373964937607886</v>
+        <v>-0.08636913216807394</v>
       </c>
       <c r="C72">
-        <v>-0.04779740935807127</v>
+        <v>-0.07310372772543014</v>
       </c>
       <c r="D72">
-        <v>0.1354290639013292</v>
+        <v>0.007747155157238748</v>
       </c>
       <c r="E72">
-        <v>0.01768348559938857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002892931911816082</v>
+      </c>
+      <c r="F72">
+        <v>0.04575144997726045</v>
+      </c>
+      <c r="G72">
+        <v>0.01986593100535341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05532064350848521</v>
+        <v>-0.3973979667949137</v>
       </c>
       <c r="C73">
-        <v>-0.1923012265663862</v>
+        <v>-0.1163138545586915</v>
       </c>
       <c r="D73">
-        <v>0.1725406332417463</v>
+        <v>-0.02217046387330124</v>
       </c>
       <c r="E73">
-        <v>0.09227291835393532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07768306242014737</v>
+      </c>
+      <c r="F73">
+        <v>0.5536419123516223</v>
+      </c>
+      <c r="G73">
+        <v>-0.1694373170081613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003276109047460464</v>
+        <v>-0.1132250791102283</v>
       </c>
       <c r="C74">
-        <v>-0.080164573008687</v>
+        <v>-0.1129833129952417</v>
       </c>
       <c r="D74">
-        <v>0.1611426965144331</v>
+        <v>0.01011953370897264</v>
       </c>
       <c r="E74">
-        <v>0.005969250565128116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01819462622538379</v>
+      </c>
+      <c r="F74">
+        <v>-0.07395480464564806</v>
+      </c>
+      <c r="G74">
+        <v>0.0481688718905238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01198261587374856</v>
+        <v>-0.249780518592269</v>
       </c>
       <c r="C75">
-        <v>-0.1858845550554123</v>
+        <v>-0.146393311021232</v>
       </c>
       <c r="D75">
-        <v>0.2863830702192177</v>
+        <v>0.03064770700723793</v>
       </c>
       <c r="E75">
-        <v>0.01756064815372149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06181978350283591</v>
+      </c>
+      <c r="F75">
+        <v>-0.1840077058181049</v>
+      </c>
+      <c r="G75">
+        <v>-0.04404205135074543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>3.714303941332505e-05</v>
+        <v>-0.1288023392875974</v>
       </c>
       <c r="C76">
-        <v>-0.1171049801744937</v>
+        <v>-0.1126798367201454</v>
       </c>
       <c r="D76">
-        <v>0.2336419214138516</v>
+        <v>0.02139931568702252</v>
       </c>
       <c r="E76">
-        <v>-0.01308920453490067</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05152808124578498</v>
+      </c>
+      <c r="F76">
+        <v>-0.1191049650266319</v>
+      </c>
+      <c r="G76">
+        <v>0.02250411350662157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0126009586779612</v>
+        <v>-0.06646150454266204</v>
       </c>
       <c r="C77">
-        <v>-0.0200528946507792</v>
+        <v>-0.05980288005568789</v>
       </c>
       <c r="D77">
-        <v>0.0505167730371275</v>
+        <v>-0.01225916085955046</v>
       </c>
       <c r="E77">
-        <v>0.008699831907624469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04886724297269599</v>
+      </c>
+      <c r="F77">
+        <v>0.007732271989002532</v>
+      </c>
+      <c r="G77">
+        <v>0.05195849693442862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004934181878506852</v>
+        <v>-0.04380807667823091</v>
       </c>
       <c r="C78">
-        <v>-0.01544704677858122</v>
+        <v>-0.05087282049902625</v>
       </c>
       <c r="D78">
-        <v>0.06435746410774541</v>
+        <v>-0.005629251007212528</v>
       </c>
       <c r="E78">
-        <v>0.001589079896604112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02096198373177115</v>
+      </c>
+      <c r="F78">
+        <v>0.03715548237927728</v>
+      </c>
+      <c r="G78">
+        <v>0.04641878286569443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01663807431106911</v>
+        <v>-0.05511924986056637</v>
       </c>
       <c r="C80">
-        <v>-0.08087990689801895</v>
+        <v>-0.06344612567324349</v>
       </c>
       <c r="D80">
-        <v>0.1671744389353218</v>
+        <v>-0.01255489991893718</v>
       </c>
       <c r="E80">
-        <v>-0.9075298870850829</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0307694936218907</v>
+      </c>
+      <c r="F80">
+        <v>0.02434623688809157</v>
+      </c>
+      <c r="G80">
+        <v>0.8438199057502911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.007960605829486881</v>
+        <v>-0.1458441890427419</v>
       </c>
       <c r="C81">
-        <v>-0.1126194851492239</v>
+        <v>-0.08815173475890488</v>
       </c>
       <c r="D81">
-        <v>0.1726030338235017</v>
+        <v>0.01607036930588832</v>
       </c>
       <c r="E81">
-        <v>-0.002310883969771365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03770058808409225</v>
+      </c>
+      <c r="F81">
+        <v>-0.1266837134842713</v>
+      </c>
+      <c r="G81">
+        <v>0.02099073071058083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1094384590188653</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05437073083454998</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006016941661191103</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0800656943594515</v>
+      </c>
+      <c r="F82">
+        <v>-0.01605609987730739</v>
+      </c>
+      <c r="G82">
+        <v>0.02844132222584266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007484742154918502</v>
+        <v>-0.02888434850893977</v>
       </c>
       <c r="C83">
-        <v>-0.02289248775547265</v>
+        <v>-0.02158665584767828</v>
       </c>
       <c r="D83">
-        <v>0.02215645357642538</v>
+        <v>-0.006142242761775858</v>
       </c>
       <c r="E83">
-        <v>0.0006440379592165668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0298971904988182</v>
+      </c>
+      <c r="F83">
+        <v>0.03612776785439038</v>
+      </c>
+      <c r="G83">
+        <v>0.03439094244739962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01769264965597492</v>
+        <v>-0.2228699750742151</v>
       </c>
       <c r="C85">
-        <v>-0.1438813358960469</v>
+        <v>-0.1424894456443429</v>
       </c>
       <c r="D85">
-        <v>0.2657040261722775</v>
+        <v>0.01863333886528249</v>
       </c>
       <c r="E85">
-        <v>0.02229358559543863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1010828662993499</v>
+      </c>
+      <c r="F85">
+        <v>-0.1450406907527851</v>
+      </c>
+      <c r="G85">
+        <v>-0.07503377510806324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008279566474018875</v>
+        <v>-0.01602326582920242</v>
       </c>
       <c r="C86">
-        <v>-0.02857406560652134</v>
+        <v>-0.02110344770302381</v>
       </c>
       <c r="D86">
-        <v>0.009735734223170745</v>
+        <v>-0.01112284101882171</v>
       </c>
       <c r="E86">
-        <v>0.02761862230633503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03972157357634602</v>
+      </c>
+      <c r="F86">
+        <v>0.04668938251953134</v>
+      </c>
+      <c r="G86">
+        <v>0.08451808237490135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008015337940358082</v>
+        <v>-0.0203627066611914</v>
       </c>
       <c r="C87">
-        <v>-0.01382583692810536</v>
+        <v>-0.02433175456620008</v>
       </c>
       <c r="D87">
-        <v>0.04386591868217232</v>
+        <v>-0.01114148622045576</v>
       </c>
       <c r="E87">
-        <v>0.006243608523548153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08338415822320502</v>
+      </c>
+      <c r="F87">
+        <v>0.02325324086557609</v>
+      </c>
+      <c r="G87">
+        <v>0.06148835648677518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02796933505282554</v>
+        <v>-0.09088085032810814</v>
       </c>
       <c r="C88">
-        <v>-0.03354249452372315</v>
+        <v>-0.06148698095753614</v>
       </c>
       <c r="D88">
-        <v>0.03848416635089903</v>
+        <v>-0.02265730828489331</v>
       </c>
       <c r="E88">
-        <v>-0.000297602659781205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01464628316063226</v>
+      </c>
+      <c r="F88">
+        <v>-0.01752947881102354</v>
+      </c>
+      <c r="G88">
+        <v>0.03951220657522176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.0800824174812929</v>
+        <v>-0.2159949054348681</v>
       </c>
       <c r="C89">
-        <v>-0.3680970657131044</v>
+        <v>0.3722434071622863</v>
       </c>
       <c r="D89">
-        <v>-0.2360157837287628</v>
+        <v>0.005169515547892161</v>
       </c>
       <c r="E89">
-        <v>0.004633671380761421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02314423070071579</v>
+      </c>
+      <c r="F89">
+        <v>-0.02175957481039194</v>
+      </c>
+      <c r="G89">
+        <v>0.03545212040108538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0614492704928835</v>
+        <v>-0.1948843690720085</v>
       </c>
       <c r="C90">
-        <v>-0.284858311836891</v>
+        <v>0.3328434662046458</v>
       </c>
       <c r="D90">
-        <v>-0.2137229230935108</v>
+        <v>0.009386048617622196</v>
       </c>
       <c r="E90">
-        <v>0.0125175601174272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02263260299767942</v>
+      </c>
+      <c r="F90">
+        <v>-0.04158100133654961</v>
+      </c>
+      <c r="G90">
+        <v>0.004264582637225174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.007822696280548163</v>
+        <v>-0.1974393343798837</v>
       </c>
       <c r="C91">
-        <v>-0.1601242595755288</v>
+        <v>-0.1334464714751797</v>
       </c>
       <c r="D91">
-        <v>0.2433788956270754</v>
+        <v>0.02444219378429046</v>
       </c>
       <c r="E91">
-        <v>0.002282060431434052</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07756733662996297</v>
+      </c>
+      <c r="F91">
+        <v>-0.1561507009510465</v>
+      </c>
+      <c r="G91">
+        <v>0.00263965738812035</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02810558323869572</v>
+        <v>-0.1983071444769237</v>
       </c>
       <c r="C92">
-        <v>-0.3110424056109914</v>
+        <v>0.2683925184885861</v>
       </c>
       <c r="D92">
-        <v>-0.09233246498168993</v>
+        <v>0.04520959904008925</v>
       </c>
       <c r="E92">
-        <v>-0.003591396896810659</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.004319001653146272</v>
+      </c>
+      <c r="F92">
+        <v>-0.05816414857088809</v>
+      </c>
+      <c r="G92">
+        <v>0.07989806165765603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05998174348263971</v>
+        <v>-0.2214998693366508</v>
       </c>
       <c r="C93">
-        <v>-0.3155755408542024</v>
+        <v>0.327572200398351</v>
       </c>
       <c r="D93">
-        <v>-0.2071992293784646</v>
+        <v>0.01606170900547875</v>
       </c>
       <c r="E93">
-        <v>0.0285877253009927</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009136823512603929</v>
+      </c>
+      <c r="F93">
+        <v>-0.03240784731518464</v>
+      </c>
+      <c r="G93">
+        <v>0.005320101602216834</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03079045102681386</v>
+        <v>-0.3103495978234431</v>
       </c>
       <c r="C94">
-        <v>-0.1875726901109086</v>
+        <v>-0.1715302382093364</v>
       </c>
       <c r="D94">
-        <v>0.2492711484035827</v>
+        <v>0.01740332687002929</v>
       </c>
       <c r="E94">
-        <v>0.04023367467174073</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1622877383703056</v>
+      </c>
+      <c r="F94">
+        <v>-0.4912606634333552</v>
+      </c>
+      <c r="G94">
+        <v>-0.1930321121741949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004264187166429365</v>
+        <v>-0.09213022038536371</v>
       </c>
       <c r="C95">
-        <v>-0.04018740876560102</v>
+        <v>-0.08880538409873237</v>
       </c>
       <c r="D95">
-        <v>0.09559537475493592</v>
+        <v>0.006526484550772684</v>
       </c>
       <c r="E95">
-        <v>0.109408172731885</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07473688441241043</v>
+      </c>
+      <c r="F95">
+        <v>0.1868150964965585</v>
+      </c>
+      <c r="G95">
+        <v>-0.07930879843266442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0158879892105355</v>
+        <v>-0.1985983829237706</v>
       </c>
       <c r="C98">
-        <v>-0.1687478584357888</v>
+        <v>-0.04536120882816588</v>
       </c>
       <c r="D98">
-        <v>0.121229360266866</v>
+        <v>0.01208386234276343</v>
       </c>
       <c r="E98">
-        <v>0.05654093328781958</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07169419158953001</v>
+      </c>
+      <c r="F98">
+        <v>0.2445519017056929</v>
+      </c>
+      <c r="G98">
+        <v>-0.02790380110255128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008080505930774478</v>
+        <v>-0.0115875510133874</v>
       </c>
       <c r="C101">
-        <v>-0.01801055275676125</v>
+        <v>-0.01943358675149339</v>
       </c>
       <c r="D101">
-        <v>0.01168279206624535</v>
+        <v>-0.007273557337259969</v>
       </c>
       <c r="E101">
-        <v>-0.009434775960742625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.00760937318084674</v>
+      </c>
+      <c r="F101">
+        <v>-0.01385984034974876</v>
+      </c>
+      <c r="G101">
+        <v>0.04700455938167826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01823730862231152</v>
+        <v>-0.1211054426891789</v>
       </c>
       <c r="C102">
-        <v>-0.08276563993799098</v>
+        <v>-0.08048607795255061</v>
       </c>
       <c r="D102">
-        <v>0.1261309381174729</v>
+        <v>-0.0008327729510864826</v>
       </c>
       <c r="E102">
-        <v>0.00726893818446332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03441382390101475</v>
+      </c>
+      <c r="F102">
+        <v>-0.04181642063321192</v>
+      </c>
+      <c r="G102">
+        <v>-0.002438513623771578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001591629055566155</v>
+        <v>-0.003175718606528253</v>
       </c>
       <c r="C103">
-        <v>-0.009454929583461166</v>
+        <v>-0.004396412138806721</v>
       </c>
       <c r="D103">
-        <v>0.02493802157841454</v>
+        <v>-0.000149034909540802</v>
       </c>
       <c r="E103">
-        <v>-0.01426025648359527</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002098709717439034</v>
+      </c>
+      <c r="F103">
+        <v>-0.008470917763075538</v>
+      </c>
+      <c r="G103">
+        <v>0.0149827425027171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.975871580401362</v>
+        <v>-0.02618182096185938</v>
       </c>
       <c r="C104">
-        <v>0.1718600336092559</v>
+        <v>0.03859881414778764</v>
       </c>
       <c r="D104">
-        <v>-0.006587713648798286</v>
+        <v>-0.9871901178963518</v>
       </c>
       <c r="E104">
-        <v>-0.02639124277851785</v>
+        <v>0.04407896261569397</v>
+      </c>
+      <c r="F104">
+        <v>-0.04409088041015803</v>
+      </c>
+      <c r="G104">
+        <v>-0.0126676257351986</v>
       </c>
     </row>
   </sheetData>
